--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\ForestCarbon2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B014A-BA45-4B63-A4EE-CC04F9BB62D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3657C92D-EFCF-4AC4-97FA-CAC977DD3732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34125" yWindow="7635" windowWidth="3210" windowHeight="9885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t># Pointers to input and output files. Paths must be relative to daily_map.py script.</t>
   </si>
@@ -51,84 +51,6 @@
     <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\depth_extended.tif</t>
   </si>
   <si>
-    <t>canal_raster</t>
-  </si>
-  <si>
-    <t>data/new_canal_raster/sum_canal_raster.tif</t>
-  </si>
-  <si>
-    <t>peat_type_raster</t>
-  </si>
-  <si>
-    <t>data/Peattypedepth_clip.tif</t>
-  </si>
-  <si>
-    <t>parameters</t>
-  </si>
-  <si>
-    <t>data/params.xlsx</t>
-  </si>
-  <si>
-    <t>WTD_input_and_output_folder</t>
-  </si>
-  <si>
-    <t>WTD</t>
-  </si>
-  <si>
-    <t>historic_precipitation</t>
-  </si>
-  <si>
-    <t>data/Dayun_weather_1-11-19_12-00_AM_1_Year_1583925430_v2.csv</t>
-  </si>
-  <si>
-    <t>Optional. In order to run the model with historical data, execute the program in the command line as "python daily_map -hp". The model will run with all the historical data contined in the file specified in Path. In order to change the range of the simulation, carefully edit the .csv file to the range required. It is crucial to maintain the format. When doing so, the water table  begins the simulation at the surface, i.e., in fully saturated conditions.</t>
-  </si>
-  <si>
-    <t>sensors_canals</t>
-  </si>
-  <si>
-    <t>data/sensor_coords_canals.tif</t>
-  </si>
-  <si>
-    <t>Optional. Position of sensors in canals for cwl estimation</t>
-  </si>
-  <si>
-    <t>cwl_estimation_output</t>
-  </si>
-  <si>
-    <t>output/cwl_estimation</t>
-  </si>
-  <si>
-    <t>Optional. Filename of output .csv file containing the one-off coherent cwl</t>
-  </si>
-  <si>
-    <t>landcover</t>
-  </si>
-  <si>
-    <t>data/Landcover_2018/landcover.tif</t>
-  </si>
-  <si>
-    <t>Needed for CO2 and subsidence rate calculation from WTD</t>
-  </si>
-  <si>
-    <t>canal_blocks_raster</t>
-  </si>
-  <si>
-    <t>data/blocks/canal_blocks.tif</t>
-  </si>
-  <si>
-    <t>Optional. Positions of canal blocks</t>
-  </si>
-  <si>
-    <t>sensor_locations</t>
-  </si>
-  <si>
-    <t>data/sensors/sensors.tif</t>
-  </si>
-  <si>
-    <t>Optional. Sensor locations</t>
-  </si>
-  <si>
     <t>canal_block_vector</t>
   </si>
   <si>
@@ -142,6 +64,12 @@
   </si>
   <si>
     <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\weather_station_coordinates.xlsx</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\mesh\mesh_0.05.msh2</t>
   </si>
 </sst>
 </file>
@@ -183,9 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -501,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,12 +440,12 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -529,18 +456,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -548,143 +475,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3657C92D-EFCF-4AC4-97FA-CAC977DD3732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C34A76B-60AC-467B-9678-7C1A6C823BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="1395" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t># Pointers to input and output files. Paths must be relative to daily_map.py script.</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\mesh\mesh_0.05.msh2</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>data/canal_network_matrix_50meters.p</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +515,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C34A76B-60AC-467B-9678-7C1A6C823BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D97267-B5DE-4C4B-AAE9-DEB1DB18E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1395" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5565" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t># Pointers to input and output files. Paths must be relative to daily_map.py script.</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>data/canal_network_matrix_50meters.p</t>
+  </si>
+  <si>
+    <t>bigger_dem_raster</t>
+  </si>
+  <si>
+    <t>data\dtm_big_area_depth_padded.tif</t>
+  </si>
+  <si>
+    <t>Necessary when the mesh is larger than the DEM and has some cell centers outside of it. If not provided, such mesh would get NaN values!</t>
   </si>
 </sst>
 </file>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +531,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D97267-B5DE-4C4B-AAE9-DEB1DB18E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123C3F66-B439-49CC-9635-BB7D9A15D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5565" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>mesh</t>
   </si>
   <si>
-    <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\mesh\mesh_0.05.msh2</t>
-  </si>
-  <si>
     <t>graph</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Necessary when the mesh is larger than the DEM and has some cell centers outside of it. If not provided, such mesh would get NaN values!</t>
+  </si>
+  <si>
+    <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\mesh\mesh_0.03.msh</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,26 +520,26 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123C3F66-B439-49CC-9635-BB7D9A15D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAA010-2A6E-4380-97CE-C9DBDD6F8B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15180" yWindow="4065" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,43 +48,43 @@
     <t>depth</t>
   </si>
   <si>
-    <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\depth_extended.tif</t>
-  </si>
-  <si>
     <t>canal_block_vector</t>
   </si>
   <si>
-    <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\0. Raw Data\01. Dam Locations and Data \199_canalblocks_20191008b.shp</t>
-  </si>
-  <si>
-    <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\dtm_depth_padded.tif</t>
-  </si>
-  <si>
     <t>weather_station_coords</t>
   </si>
   <si>
-    <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\weather_station_coordinates.xlsx</t>
-  </si>
-  <si>
     <t>mesh</t>
   </si>
   <si>
     <t>graph</t>
   </si>
   <si>
-    <t>data/canal_network_matrix_50meters.p</t>
-  </si>
-  <si>
     <t>bigger_dem_raster</t>
   </si>
   <si>
-    <t>data\dtm_big_area_depth_padded.tif</t>
-  </si>
-  <si>
     <t>Necessary when the mesh is larger than the DEM and has some cell centers outside of it. If not provided, such mesh would get NaN values!</t>
   </si>
   <si>
-    <t>C:\Users\03125327\Dropbox\PhD\Computation\ForestCarbon\2021 SMPP WTD customer work\qgis_derivated_data\mesh\mesh_0.03.msh</t>
+    <t>data/new_area/canal_network_matrix_50meters.p</t>
+  </si>
+  <si>
+    <t>data/new_area/mesh_0.02.msh</t>
+  </si>
+  <si>
+    <t>data/dtm_depth_padded.tif</t>
+  </si>
+  <si>
+    <t>data/depth_extended.tif</t>
+  </si>
+  <si>
+    <t>data/199_canalblocks_20191008b.shp</t>
+  </si>
+  <si>
+    <t>data/weather_station_coordinates.xlsx</t>
+  </si>
+  <si>
+    <t>data/dtm_big_area_depth_padded.tif</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -487,25 +487,25 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -517,29 +517,29 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAA010-2A6E-4380-97CE-C9DBDD6F8B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A7AC8-375A-4A3E-AC9A-B8AD983A8281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="4065" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="7335" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>data/new_area/canal_network_matrix_50meters.p</t>
   </si>
   <si>
-    <t>data/new_area/mesh_0.02.msh</t>
-  </si>
-  <si>
     <t>data/dtm_depth_padded.tif</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>data/dtm_big_area_depth_padded.tif</t>
+  </si>
+  <si>
+    <t>data/new_area/mesh_0.05.msh</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAA010-2A6E-4380-97CE-C9DBDD6F8B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B9671-403F-465B-B2E5-266537DE390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="4065" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t># Pointers to input and output files. Paths must be relative to daily_map.py script.</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>data/dtm_big_area_depth_padded.tif</t>
+  </si>
+  <si>
+    <t>channel_network_lines</t>
+  </si>
+  <si>
+    <t>data/new_area/water_bodies_singleparts.gpkg</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +548,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A7AC8-375A-4A3E-AC9A-B8AD983A8281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F2E2A-357F-471D-BB3A-0197E893586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="7335" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +542,9 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B9671-403F-465B-B2E5-266537DE390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43643E49-29AE-485E-B67A-8345DB83CF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>data/new_area/canal_network_matrix_50meters.p</t>
   </si>
   <si>
-    <t>data/new_area/mesh_0.02.msh</t>
-  </si>
-  <si>
     <t>data/dtm_depth_padded.tif</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>data/new_area/water_bodies_singleparts.gpkg</t>
+  </si>
+  <si>
+    <t>data/new_area/mesh_0.05.msh</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABC7D1-825C-4A6B-8859-C5C70852AF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3DF797-6E3B-4A2D-A028-B6C7335A2EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t># Pointers to input and output files. Paths must be relative to daily_map.py script.</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>data/new_area/mesh_0.05.msh</t>
+  </si>
+  <si>
+    <t>channel_network_lines</t>
+  </si>
+  <si>
+    <t>data/new_area/water_bodies_singleparts.gpkg</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +549,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,19 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3DF797-6E3B-4A2D-A028-B6C7335A2EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6C3F1D-67F4-4E52-AA0C-0F95E4BAE63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="4440" windowWidth="9225" windowHeight="10215" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -57,9 +52,6 @@
     <t>mesh</t>
   </si>
   <si>
-    <t>graph</t>
-  </si>
-  <si>
     <t>bigger_dem_raster</t>
   </si>
   <si>
@@ -84,26 +76,36 @@
     <t>data/dtm_big_area_depth_padded.tif</t>
   </si>
   <si>
-    <t>data/new_area/mesh_0.05.msh</t>
-  </si>
-  <si>
-    <t>channel_network_lines</t>
-  </si>
-  <si>
-    <t>data/new_area/water_bodies_singleparts.gpkg</t>
+    <t>channel_network_graph_pickle</t>
+  </si>
+  <si>
+    <t>canal_mask_mesh_centroids</t>
+  </si>
+  <si>
+    <t>data/new_area/mesh_0.035.msh</t>
+  </si>
+  <si>
+    <t>data/new_area/mesh_0.035/canal_mesh_cells.gpkg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -129,15 +131,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{315D8E6C-173D-4E09-8592-58FA30E1B7CF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,7 +458,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -493,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -501,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -511,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -526,31 +532,31 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6C3F1D-67F4-4E52-AA0C-0F95E4BAE63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC9ECDD-0FB4-4162-B541-4F128EDE20F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="4440" windowWidth="9225" windowHeight="10215" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t># Pointers to input and output files. Paths must be relative to daily_map.py script.</t>
   </si>
@@ -52,12 +52,6 @@
     <t>mesh</t>
   </si>
   <si>
-    <t>bigger_dem_raster</t>
-  </si>
-  <si>
-    <t>Necessary when the mesh is larger than the DEM and has some cell centers outside of it. If not provided, such mesh would get NaN values!</t>
-  </si>
-  <si>
     <t>data/new_area/canal_network_matrix_50meters.p</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
   </si>
   <si>
     <t>data/weather_station_coordinates.xlsx</t>
-  </si>
-  <si>
-    <t>data/dtm_big_area_depth_padded.tif</t>
   </si>
   <si>
     <t>channel_network_graph_pickle</t>
@@ -455,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -499,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -507,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -517,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -532,34 +523,23 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC9ECDD-0FB4-4162-B541-4F128EDE20F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6C3E6-789F-46CE-A733-8DB104CE5C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="5610" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t># Pointers to input and output files. Paths must be relative to daily_map.py script.</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>data/new_area/mesh_0.035/canal_mesh_cells.gpkg</t>
+  </si>
+  <si>
+    <t>initial_zeta_pickle</t>
+  </si>
+  <si>
+    <t>template_output_raster</t>
+  </si>
+  <si>
+    <t>data/new_area/best_initial_zeta.p</t>
   </si>
 </sst>
 </file>
@@ -446,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,6 +551,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\paper2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6C3E6-789F-46CE-A733-8DB104CE5C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDC122-5AFA-4215-8D3D-E13BE02049D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="5610" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12810" yWindow="4395" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t># Pointers to input and output files. Paths must be relative to daily_map.py script.</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>data/new_area/best_initial_zeta.p</t>
+  </si>
+  <si>
+    <t>data/new_area/new_area_dtm.tif</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +567,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">DEM</t>
   </si>
   <si>
-    <t xml:space="preserve">data/dtm_depth_padded.tif</t>
+    <t xml:space="preserve">data/dtm_depth_padded_filled.tif</t>
   </si>
   <si>
     <t xml:space="preserve">input</t>
@@ -202,10 +202,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.28"/>
